--- a/biology/Botanique/Macrozamia/Macrozamia.xlsx
+++ b/biology/Botanique/Macrozamia/Macrozamia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Macrozamia est un genre de plantes comprenant 38 à 40 espèces appartenant à la famille des Zamiaceae endémique de l'Australie.
 La majorité des espèces vivent dans l'est de l'Australie, dans le sud du Queensland et en Nouvelle-Galles du Sud, avec une espèce poussant dans les monts MacDonnell dans le Territoire du Nord et trois dans le sud de l'Australie-Occidentale. Le nom commun Burrawang, à l'origine se référant à M. communis dans la langue aborigène Daruk, est souvent utilisé en anglais pour désigner toutes les espèces dans le genre.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Macrozamia cardiacensis - sud-est du Queensland
 Macrozamia communis - côte est de la Nouvelle-Galles du Sud
